--- a/Data/h2hCustomerData.xlsx
+++ b/Data/h2hCustomerData.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28908"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10319"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/waynesinclair/Documents/MyProjects/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00CF620F-FFCF-A64E-9E9C-A01425F26CCF}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CustomerData1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="150000" concurrentCalc="0"/>
+  <calcPr calcId="179017"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="86">
   <si>
     <t>Legal Entity Name</t>
   </si>
@@ -275,16 +276,22 @@
     <t>011-676-1235</t>
   </si>
   <si>
-    <t xml:space="preserve">University of Nairobi - </t>
-  </si>
-  <si>
-    <t>Wayne - 0665005908 - X509 Signing With Encryption</t>
+    <t>Wayne 02</t>
+  </si>
+  <si>
+    <t>Wayne 03</t>
+  </si>
+  <si>
+    <t>ABWS383</t>
+  </si>
+  <si>
+    <t>Wayne 01A</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -376,6 +383,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -643,12 +653,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AL3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AL4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B9" sqref="B9"/>
+      <selection pane="topRight" activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -659,7 +669,7 @@
     <col min="4" max="4" width="19.83203125" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.6640625" style="2" customWidth="1"/>
     <col min="6" max="6" width="17.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.6640625" style="2" customWidth="1"/>
     <col min="8" max="8" width="15.5" style="2" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11.5" style="2" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="13.6640625" style="2" customWidth="1"/>
@@ -804,8 +814,8 @@
       </c>
     </row>
     <row r="2" spans="1:38" s="3" customFormat="1" ht="32" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
-        <v>83</v>
+      <c r="A2" s="5" t="s">
+        <v>85</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>2</v>
@@ -1035,16 +1045,136 @@
         <v>43</v>
       </c>
     </row>
+    <row r="4" spans="1:38" ht="32" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="K4" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="M4" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="N4" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="O4" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="P4" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q4" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="R4" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="S4" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="T4" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="U4" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="V4" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="W4" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="X4" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="Y4" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="Z4" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="AA4" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="AB4" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AC4" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD4" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="AE4" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="AF4" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="AG4" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="AH4" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="AI4" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="AJ4" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="AK4" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="AL4" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="Q2" r:id="rId1"/>
-    <hyperlink ref="W2" r:id="rId2"/>
-    <hyperlink ref="AA2" r:id="rId3"/>
-    <hyperlink ref="AF2" r:id="rId4"/>
-    <hyperlink ref="Q3" r:id="rId5"/>
-    <hyperlink ref="W3" r:id="rId6"/>
-    <hyperlink ref="AA3" r:id="rId7"/>
-    <hyperlink ref="AF3" r:id="rId8"/>
+    <hyperlink ref="Q2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="W2" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="AA2" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="AF2" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="Q3" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="W3" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="AA3" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="AF3" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="Q4" r:id="rId9" xr:uid="{D506E76D-BFC6-264D-A22D-07BC736AA1CA}"/>
+    <hyperlink ref="W4" r:id="rId10" xr:uid="{BB1B744A-B9B3-6C45-8798-5E0CA88B644A}"/>
+    <hyperlink ref="AA4" r:id="rId11" xr:uid="{D6CC0FD1-DED9-7F4C-AC0A-224A0AC739B5}"/>
+    <hyperlink ref="AF4" r:id="rId12" xr:uid="{706BEFCD-90E3-9C4C-888F-6E5C72B1C2C0}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
